--- a/CSC8502/Logs/forward_plus_end.xlsx
+++ b/CSC8502/Logs/forward_plus_end.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tb614\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tb614\Documents\ncl_projects\manual\ncl_thesis\CSC8502\Logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124A585E-27FB-49A3-9C55-62CD139476C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B671D97C-921E-44B7-B2ED-CD4234394DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Light Performace of Deferred Rendering </a:t>
+              <a:t>Light Performace of Forward Plus Rendering </a:t>
             </a:r>
             <a:endParaRPr lang="zh-CN" altLang="zh-CN">
               <a:effectLst/>
